--- a/Data/RumorNRum_Groups.xlsx
+++ b/Data/RumorNRum_Groups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallo\OneDrive\Desktop\ClusterBasedPermutationTesting\Data\InputData\PreprocData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallo\OneDrive\Desktop\ClusterBasedPermutationTesting\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7D3C35-0B5C-4FE5-8FE3-49C9AFE97D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E2BDF3-022A-415D-BEF2-4A0144C5535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="16920" windowHeight="10450" xr2:uid="{A7454758-D992-4B87-8A43-E07FF1FF2D11}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{A7454758-D992-4B87-8A43-E07FF1FF2D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>SubID</t>
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>PTM_0035</t>
+  </si>
+  <si>
+    <t>PTM_0036</t>
+  </si>
+  <si>
+    <t>PTM_0037</t>
+  </si>
+  <si>
+    <t>PTM_0038</t>
+  </si>
+  <si>
+    <t>PTM_0039</t>
+  </si>
+  <si>
+    <t>PTM_0040</t>
+  </si>
+  <si>
+    <t>PTM_0041</t>
+  </si>
+  <si>
+    <t>PTM_0042</t>
+  </si>
+  <si>
+    <t>PTM_0043</t>
+  </si>
+  <si>
+    <t>PTM_0044</t>
+  </si>
+  <si>
+    <t>PTM_0045</t>
+  </si>
+  <si>
+    <t>PTM_0046</t>
+  </si>
+  <si>
+    <t>PTM_0047</t>
+  </si>
+  <si>
+    <t>PTM_0050</t>
+  </si>
+  <si>
+    <t>PTM_0051</t>
+  </si>
+  <si>
+    <t>PTM_0052</t>
+  </si>
+  <si>
+    <t>PTM_0053</t>
+  </si>
+  <si>
+    <t>PTM_0054</t>
+  </si>
+  <si>
+    <t>PTM_0055</t>
+  </si>
+  <si>
+    <t>PTM_0056</t>
+  </si>
+  <si>
+    <t>PTM_0057</t>
+  </si>
+  <si>
+    <t>PTM_0058</t>
+  </si>
+  <si>
+    <t>PTM_0059</t>
+  </si>
+  <si>
+    <t>PTM_0060</t>
   </si>
 </sst>
 </file>
@@ -413,13 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0BB414-50C9-48E5-A363-57A0FDC39007}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -429,6 +504,198 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
